--- a/target/test-classes/testdata/users.xlsx
+++ b/target/test-classes/testdata/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\levy\kerja\rekrutmen\doitpay\doitpay-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8B57B-78AD-4022-BC81-3E49C9C1218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AA023E-6E71-4040-B905-C17E7FAAD1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="2088" windowWidth="11976" windowHeight="9924" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid User" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>test_invalid_user</t>
+  </si>
+  <si>
+    <t>wrong_pass</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
